--- a/biology/Zoologie/Chevalier_gambette/Chevalier_gambette.xlsx
+++ b/biology/Zoologie/Chevalier_gambette/Chevalier_gambette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tringa totanus
 Le Chevalier gambette (Tringa totanus) est une espèce d'oiseaux limicoles de la famille des scolopacidés.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chevalier gambette est un petit limicole d'environ 25 à 30 cm de longueur, aux pattes rouge vif et au plumage à dominante brun gris. En plumage nuptial, le dos et le dessus des ailes sont gris foncé à brun, de même que la tête et le cou. Le ventre et la poitrine sont blancs tachetés de noir. À l'automne, les parties sombres s'éclaircissent pour devenir gris clair, les taches du ventre disparaissent. Il peut alors être confondu avec le Chevalier arlequin. Ce sont les deux seuls limicoles de cette taille à avoir les pattes rouges. Le Chevalier gambette s'en distingue principalement par un bec un peu plus court, et par une large bande blanche à l'arrière de l'aile visible en vol, qui le distingue immédiatement de tous les autres limicoles. Il est fréquemment appelé " pieds rouges " dans certaines régions à cause de la couleur de ses pattes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chevalier gambette est un petit limicole d'environ 25 à 30 cm de longueur, aux pattes rouge vif et au plumage à dominante brun gris. En plumage nuptial, le dos et le dessus des ailes sont gris foncé à brun, de même que la tête et le cou. Le ventre et la poitrine sont blancs tachetés de noir. À l'automne, les parties sombres s'éclaircissent pour devenir gris clair, les taches du ventre disparaissent. Il peut alors être confondu avec le Chevalier arlequin. Ce sont les deux seuls limicoles de cette taille à avoir les pattes rouges. Le Chevalier gambette s'en distingue principalement par un bec un peu plus court, et par une large bande blanche à l'arrière de l'aile visible en vol, qui le distingue immédiatement de tous les autres limicoles. Il est fréquemment appelé " pieds rouges " dans certaines régions à cause de la couleur de ses pattes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicheur dans certaines régions (Camargue, Vendée...), le Chevalier gambette est un visiteur d'hiver et surtout un migrateur très commun sur les côtes françaises.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chevalier gambette se rencontre essentiellement dans des zones humides et salées, le plus souvent sur des vasières dans lesquelles il se nourrit de vers et de petits crustacés.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent solitaire, on peut néanmoins le trouver en groupes de quelques dizaines à plusieurs centaines d'individus dans les estuaires, ou accompagné de chevaliers aboyeurs, de chevaliers arlequins ou de barges rousses et barges à queue noire.
 </t>
@@ -636,7 +656,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Tringa totanus craggi Hale 1971 ;
